--- a/data/pca/factorExposure/factorExposure_2013-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-29.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002537073401542162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001806320852489041</v>
+      </c>
+      <c r="C2">
+        <v>0.0329537422706012</v>
+      </c>
+      <c r="D2">
+        <v>0.006217550061352312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002034694339052694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005966596245224729</v>
+      </c>
+      <c r="C4">
+        <v>0.08509606254553484</v>
+      </c>
+      <c r="D4">
+        <v>0.07863609008624838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001163698938966011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01320030962235014</v>
+      </c>
+      <c r="C6">
+        <v>0.108767481781857</v>
+      </c>
+      <c r="D6">
+        <v>0.03420389062176114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00223429894841366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004748672139621293</v>
+      </c>
+      <c r="C7">
+        <v>0.05375955508721014</v>
+      </c>
+      <c r="D7">
+        <v>0.03542163656435524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006994664956554188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005577712545813941</v>
+      </c>
+      <c r="C8">
+        <v>0.037143496482783</v>
+      </c>
+      <c r="D8">
+        <v>0.03838547233535084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004016665521978096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003960455030294294</v>
+      </c>
+      <c r="C9">
+        <v>0.06975708960623143</v>
+      </c>
+      <c r="D9">
+        <v>0.07188033107963211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004454071033477107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005630418689334156</v>
+      </c>
+      <c r="C10">
+        <v>0.07284356090644215</v>
+      </c>
+      <c r="D10">
+        <v>-0.2136737210282024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003397124795724507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005203950609315375</v>
+      </c>
+      <c r="C11">
+        <v>0.07823954652414475</v>
+      </c>
+      <c r="D11">
+        <v>0.06519579911630775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-9.272871551992051e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004007834163464658</v>
+      </c>
+      <c r="C12">
+        <v>0.06380839337573524</v>
+      </c>
+      <c r="D12">
+        <v>0.0475165122879207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003003047187504395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008388295521842365</v>
+      </c>
+      <c r="C13">
+        <v>0.0648845398784534</v>
+      </c>
+      <c r="D13">
+        <v>0.06656120014460747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001522484067905953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001484581277584659</v>
+      </c>
+      <c r="C14">
+        <v>0.04562388303418916</v>
+      </c>
+      <c r="D14">
+        <v>0.0143367174618411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009507748709408748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005880252414006362</v>
+      </c>
+      <c r="C15">
+        <v>0.04074776971705899</v>
+      </c>
+      <c r="D15">
+        <v>0.03235758844163714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001720618347340268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004863296990809771</v>
+      </c>
+      <c r="C16">
+        <v>0.06449466136746522</v>
+      </c>
+      <c r="D16">
+        <v>0.05025192878181842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001950170764766633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008893244164219256</v>
+      </c>
+      <c r="C20">
+        <v>0.06513603469171117</v>
+      </c>
+      <c r="D20">
+        <v>0.05561331173550654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005403399061732463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009769326528957739</v>
+      </c>
+      <c r="C21">
+        <v>0.02189871523190451</v>
+      </c>
+      <c r="D21">
+        <v>0.0360187321711937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01717223582830749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006884261753199569</v>
+      </c>
+      <c r="C22">
+        <v>0.09365441331328997</v>
+      </c>
+      <c r="D22">
+        <v>0.1013880935460528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01749809444239411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006697814643668384</v>
+      </c>
+      <c r="C23">
+        <v>0.09451026757174995</v>
+      </c>
+      <c r="D23">
+        <v>0.1017175760448389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002134843679186805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004876413394323325</v>
+      </c>
+      <c r="C24">
+        <v>0.0730991202344477</v>
+      </c>
+      <c r="D24">
+        <v>0.06174116769889969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004095476253939146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002703749382131873</v>
+      </c>
+      <c r="C25">
+        <v>0.07707651000388137</v>
+      </c>
+      <c r="D25">
+        <v>0.06681882298310074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00621397027988949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003588456701689835</v>
+      </c>
+      <c r="C26">
+        <v>0.04116327453171612</v>
+      </c>
+      <c r="D26">
+        <v>0.02873107672064295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004107340093011436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004715803075457851</v>
+      </c>
+      <c r="C28">
+        <v>0.1210566268942206</v>
+      </c>
+      <c r="D28">
+        <v>-0.3100701506637746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00144850578380713</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003193787090182908</v>
+      </c>
+      <c r="C29">
+        <v>0.0488001574913622</v>
+      </c>
+      <c r="D29">
+        <v>0.01375056600669522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004507935921946247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008565124478011691</v>
+      </c>
+      <c r="C30">
+        <v>0.1379451982193291</v>
+      </c>
+      <c r="D30">
+        <v>0.1078069856130651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001499863675090475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006086443068265487</v>
+      </c>
+      <c r="C31">
+        <v>0.04557336124526947</v>
+      </c>
+      <c r="D31">
+        <v>0.03127035037308744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001062264879791215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003977150670007603</v>
+      </c>
+      <c r="C32">
+        <v>0.03940659290763301</v>
+      </c>
+      <c r="D32">
+        <v>0.01867568786842639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003540363705371102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007793698885081547</v>
+      </c>
+      <c r="C33">
+        <v>0.08401359768729792</v>
+      </c>
+      <c r="D33">
+        <v>0.07517412052885797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00482402084242494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00380826475669999</v>
+      </c>
+      <c r="C34">
+        <v>0.05790190736099442</v>
+      </c>
+      <c r="D34">
+        <v>0.04742559843206654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002752915733851292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00473089297148916</v>
+      </c>
+      <c r="C35">
+        <v>0.03861201963767653</v>
+      </c>
+      <c r="D35">
+        <v>0.01410780248163631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004028124412120677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001408997211624787</v>
+      </c>
+      <c r="C36">
+        <v>0.02347091563872652</v>
+      </c>
+      <c r="D36">
+        <v>0.02330680081756668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002053782895160395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00922196829857664</v>
+      </c>
+      <c r="C38">
+        <v>0.03292885948770619</v>
+      </c>
+      <c r="D38">
+        <v>0.01956930183424635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0133586510283504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001039125192903168</v>
+      </c>
+      <c r="C39">
+        <v>0.1149576758162939</v>
+      </c>
+      <c r="D39">
+        <v>0.08530370187397747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009472656815484006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002104304768785287</v>
+      </c>
+      <c r="C40">
+        <v>0.08714398940018894</v>
+      </c>
+      <c r="D40">
+        <v>0.02080055406787483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003908508865939652</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007345961459215969</v>
+      </c>
+      <c r="C41">
+        <v>0.03894530090276156</v>
+      </c>
+      <c r="D41">
+        <v>0.03474161798528781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003165097434172823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003525031133510952</v>
+      </c>
+      <c r="C43">
+        <v>0.05046426872727275</v>
+      </c>
+      <c r="D43">
+        <v>0.02566202216200576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002432177801729179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003428958815093388</v>
+      </c>
+      <c r="C44">
+        <v>0.1098270519583453</v>
+      </c>
+      <c r="D44">
+        <v>0.08434248301121021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001807413742499615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002234917774898516</v>
+      </c>
+      <c r="C46">
+        <v>0.03400017313672943</v>
+      </c>
+      <c r="D46">
+        <v>0.03133090545014128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001073170916564768</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002579811010673643</v>
+      </c>
+      <c r="C47">
+        <v>0.03803782650952917</v>
+      </c>
+      <c r="D47">
+        <v>0.02370056035854029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.0033601084110473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006340737518267637</v>
+      </c>
+      <c r="C48">
+        <v>0.02850392423502243</v>
+      </c>
+      <c r="D48">
+        <v>0.03324113936786276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01443083293757286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01426879344738771</v>
+      </c>
+      <c r="C49">
+        <v>0.173546466514752</v>
+      </c>
+      <c r="D49">
+        <v>0.02706171398114211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001375478192245044</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003563549552198129</v>
+      </c>
+      <c r="C50">
+        <v>0.04292570596713219</v>
+      </c>
+      <c r="D50">
+        <v>0.03583282782116537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001300851542443485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004249329727118657</v>
+      </c>
+      <c r="C51">
+        <v>0.02057928731210484</v>
+      </c>
+      <c r="D51">
+        <v>0.03276276992206667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-4.23456707052735e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01999633280714501</v>
+      </c>
+      <c r="C53">
+        <v>0.1649420110845487</v>
+      </c>
+      <c r="D53">
+        <v>0.04793983050079833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0009839490873399571</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008557691183715388</v>
+      </c>
+      <c r="C54">
+        <v>0.05468168610730069</v>
+      </c>
+      <c r="D54">
+        <v>0.04282415507804658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004111476075391966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009132091704195038</v>
+      </c>
+      <c r="C55">
+        <v>0.1067358903726092</v>
+      </c>
+      <c r="D55">
+        <v>0.05214722060814789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002625031829328708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01939193814019811</v>
+      </c>
+      <c r="C56">
+        <v>0.1733336947741177</v>
+      </c>
+      <c r="D56">
+        <v>0.04475038194840959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008175747773728833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01923795476558762</v>
+      </c>
+      <c r="C58">
+        <v>0.1038160738848584</v>
+      </c>
+      <c r="D58">
+        <v>0.0695221553769594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006883647466187448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009538835751131585</v>
+      </c>
+      <c r="C59">
+        <v>0.1689010217149838</v>
+      </c>
+      <c r="D59">
+        <v>-0.2864789019546756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004866852506634757</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02323698393896254</v>
+      </c>
+      <c r="C60">
+        <v>0.2227232406927612</v>
+      </c>
+      <c r="D60">
+        <v>0.02824437095737592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01507845259787022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002106078360848081</v>
+      </c>
+      <c r="C61">
+        <v>0.09403831969611823</v>
+      </c>
+      <c r="D61">
+        <v>0.06275981387660258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1714188290301496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1435956283118349</v>
+      </c>
+      <c r="C62">
+        <v>0.08082360660452104</v>
+      </c>
+      <c r="D62">
+        <v>0.05547883427604873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001517793379292414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006328044971240999</v>
+      </c>
+      <c r="C63">
+        <v>0.05955971292096161</v>
+      </c>
+      <c r="D63">
+        <v>0.02495149099438686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006731336969612972</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474701663073052</v>
+      </c>
+      <c r="C64">
+        <v>0.1029777681145828</v>
+      </c>
+      <c r="D64">
+        <v>0.0642439897145571</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0006614559367676514</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01701064660581538</v>
+      </c>
+      <c r="C65">
+        <v>0.1160134102801377</v>
+      </c>
+      <c r="D65">
+        <v>0.0238199985790331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008348005693689629</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01214152338372058</v>
+      </c>
+      <c r="C66">
+        <v>0.1544706880785726</v>
+      </c>
+      <c r="D66">
+        <v>0.1223459270097295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00342799043661143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01531559787594215</v>
+      </c>
+      <c r="C67">
+        <v>0.06299061501567853</v>
+      </c>
+      <c r="D67">
+        <v>0.03039458495572178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00669481699883854</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001102015387455274</v>
+      </c>
+      <c r="C68">
+        <v>0.10346538089902</v>
+      </c>
+      <c r="D68">
+        <v>-0.2594518389815952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002682023001991593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005796669264719286</v>
+      </c>
+      <c r="C69">
+        <v>0.04806901056228387</v>
+      </c>
+      <c r="D69">
+        <v>0.0432641656508394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001718789019417234</v>
+      </c>
+      <c r="C70">
+        <v>0.001859984434934787</v>
+      </c>
+      <c r="D70">
+        <v>0.002491954598657759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001689738758543987</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006118248093507525</v>
+      </c>
+      <c r="C71">
+        <v>0.1073437128692673</v>
+      </c>
+      <c r="D71">
+        <v>-0.2854697090755308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.006319936058433789</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01540243217544601</v>
+      </c>
+      <c r="C72">
+        <v>0.1499044448377683</v>
+      </c>
+      <c r="D72">
+        <v>0.019850378633783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01206818406674208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02928932189159374</v>
+      </c>
+      <c r="C73">
+        <v>0.2818168420373277</v>
+      </c>
+      <c r="D73">
+        <v>0.04524311579483602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004811423779501472</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001244031376319802</v>
+      </c>
+      <c r="C74">
+        <v>0.1038766562492442</v>
+      </c>
+      <c r="D74">
+        <v>0.04453924651607561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004953710646346886</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0105740388312803</v>
+      </c>
+      <c r="C75">
+        <v>0.1318534158970255</v>
+      </c>
+      <c r="D75">
+        <v>0.02626701139451097</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009224598744924704</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02098419619125767</v>
+      </c>
+      <c r="C76">
+        <v>0.1479128270666333</v>
+      </c>
+      <c r="D76">
+        <v>0.07063280008563154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009830902049762162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02403306332576968</v>
+      </c>
+      <c r="C77">
+        <v>0.1336833782044558</v>
+      </c>
+      <c r="D77">
+        <v>0.06652000585905275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00161670985661617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01409780051175955</v>
+      </c>
+      <c r="C78">
+        <v>0.09189764083288986</v>
+      </c>
+      <c r="D78">
+        <v>0.06778666765753323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02473881148916907</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03665137161161123</v>
+      </c>
+      <c r="C79">
+        <v>0.1567515052776105</v>
+      </c>
+      <c r="D79">
+        <v>0.03227786179194657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004887787007981793</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01028995824353574</v>
+      </c>
+      <c r="C80">
+        <v>0.04117242326857549</v>
+      </c>
+      <c r="D80">
+        <v>0.03279994566604002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001323014395178947</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01433409755803583</v>
+      </c>
+      <c r="C81">
+        <v>0.1232139861720448</v>
+      </c>
+      <c r="D81">
+        <v>0.05684067619492181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004353163084225961</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01932927781343627</v>
+      </c>
+      <c r="C82">
+        <v>0.1417743533481028</v>
+      </c>
+      <c r="D82">
+        <v>0.04579537035553991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008496858038925199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009847359746480586</v>
+      </c>
+      <c r="C83">
+        <v>0.05563504125167645</v>
+      </c>
+      <c r="D83">
+        <v>0.04883619638700581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01254301138802473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01159927614484662</v>
+      </c>
+      <c r="C84">
+        <v>0.03345501737383491</v>
+      </c>
+      <c r="D84">
+        <v>-0.004180419442697099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01492389012230483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02775667776045625</v>
+      </c>
+      <c r="C85">
+        <v>0.1286136508107329</v>
+      </c>
+      <c r="D85">
+        <v>0.04930499883379487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001431749106365416</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00532160091237939</v>
+      </c>
+      <c r="C86">
+        <v>0.04814295670688107</v>
+      </c>
+      <c r="D86">
+        <v>0.02278875336424916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005568712378935594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01004596118200017</v>
+      </c>
+      <c r="C87">
+        <v>0.1288735948284232</v>
+      </c>
+      <c r="D87">
+        <v>0.07721897814915321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01344719695579282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002925941103386424</v>
+      </c>
+      <c r="C88">
+        <v>0.06745743613389965</v>
+      </c>
+      <c r="D88">
+        <v>0.0155856110124797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01581675933087432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009093323530769173</v>
+      </c>
+      <c r="C89">
+        <v>0.1588548060448454</v>
+      </c>
+      <c r="D89">
+        <v>-0.3391857729204005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003023508484624514</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007449114076909117</v>
+      </c>
+      <c r="C90">
+        <v>0.1387437353195168</v>
+      </c>
+      <c r="D90">
+        <v>-0.322576491866861</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004744063894567139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01006180112228485</v>
+      </c>
+      <c r="C91">
+        <v>0.1051701986577565</v>
+      </c>
+      <c r="D91">
+        <v>0.02008984757848322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008637289406435912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006558041029492285</v>
+      </c>
+      <c r="C92">
+        <v>0.14518615289707</v>
+      </c>
+      <c r="D92">
+        <v>-0.3288923416536376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001018664057696684</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005267311052226922</v>
+      </c>
+      <c r="C93">
+        <v>0.1192398987265826</v>
+      </c>
+      <c r="D93">
+        <v>-0.3130737280717122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002782177851602721</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02199519321226929</v>
+      </c>
+      <c r="C94">
+        <v>0.1559238046363073</v>
+      </c>
+      <c r="D94">
+        <v>0.03320443125846818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005326486542792777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01594567543558996</v>
+      </c>
+      <c r="C95">
+        <v>0.1245118978771959</v>
+      </c>
+      <c r="D95">
+        <v>0.06541742498322239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002221256958443837</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03441633370627548</v>
+      </c>
+      <c r="C97">
+        <v>0.1810654505963517</v>
+      </c>
+      <c r="D97">
+        <v>0.03822883420646619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.005198747584018264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03623494958813028</v>
+      </c>
+      <c r="C98">
+        <v>0.2527284641679358</v>
+      </c>
+      <c r="D98">
+        <v>0.04696131131781953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9831644374817763</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828139762521806</v>
+      </c>
+      <c r="C99">
+        <v>-0.1099189799573397</v>
+      </c>
+      <c r="D99">
+        <v>-0.03084502626784871</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001404170134851173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003236889897353554</v>
+      </c>
+      <c r="C101">
+        <v>0.04882957524995041</v>
+      </c>
+      <c r="D101">
+        <v>0.01415874819465885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
